--- a/数据结构.xlsx
+++ b/数据结构.xlsx
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Match</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前英雄对队友的辅助值（即配合指数，如：1.53%代表配合，-2.02%代表阻碍）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +123,6 @@
   </si>
   <si>
     <t>英雄信息表/HERO_INFO 113条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌对信息表/ANTI_INFO 113*112条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -286,6 +278,14 @@
     <t>SQL Server 使用 TOP 10 关键字；
 MySQL 使用 LIMIT 10 关键字；
 Oracle 使用 WHERE ROWNUM &lt;= 10 作为条件（ROWNUM是表的隐藏字段，不用自己去创建）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌对信息表/ANTI_INFO 113*112条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,31 +392,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -711,16 +711,16 @@
     <col min="3" max="3" width="74.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -748,9 +748,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
+    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -783,7 +783,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -794,23 +794,23 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -837,13 +837,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -854,72 +854,72 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/数据结构.xlsx
+++ b/数据结构.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT Hero,sum(Match) as IdxValue FROM ASSIST_INFO WHERE Teammate IN (友方1号英雄,友方2号英雄,友方3号英雄,友方4号英雄) GROUP BY Hero;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT Hero,sum(Advantage) as IdxValue FROM ANTI_INFO WHERE Enemy IN (敌方1号英雄,敌方2号英雄,敌方3号英雄,敌方4号英雄,敌方5号英雄) GROUP BY Hero;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,43 +246,49 @@
   <si>
     <t>一句话SQL：</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select Hero, IdxValue from （上述SQL） ORDER BY IdxValue DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甚至加上前10限制：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以进一步对以上结果降序：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL Server 使用 TOP 10 关键字；
+MySQL 使用 LIMIT 10 关键字；
+Oracle 使用 WHERE ROWNUM &lt;= 10 作为条件（ROWNUM是表的隐藏字段，不用自己去创建）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌对信息表/ANTI_INFO 113*112条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Cname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT Hero,sum(Assist) as IdxValue FROM ASSIST_INFO WHERE Teammate IN (友方1号英雄,友方2号英雄,友方3号英雄,友方4号英雄) GROUP BY Hero;</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT TEMP_TABLE.Hero,sum(TEMP_TABLE.IdxValue) from 
 (
-SELECT Hero,sum(Match) as IdxValue FROM ASSIST_INFO WHERE Teammate IN (友方1号英雄,友方2号英雄,友方3号英雄,友方4号英雄) GROUP BY Hero
+SELECT Hero,sum(Assist) as IdxValue FROM ASSIST_INFO WHERE Teammate IN (友方1号英雄,友方2号英雄,友方3号英雄,友方4号英雄) GROUP BY Hero
 UNION ALL
 SELECT Hero,sum(Advantage) as IdxValue FROM ANTI_INFO WHERE Enemy IN (敌方1号英雄,敌方2号英雄,敌方3号英雄,敌方4号英雄,敌方5号英雄) GROUP BY Hero
 ) AS TEMP_TABLE
 GROUP BY Hero
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select Hero, IdxValue from （上述SQL） ORDER BY IdxValue DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甚至加上前10限制：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>也可以进一步对以上结果降序：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL Server 使用 TOP 10 关键字；
-MySQL 使用 LIMIT 10 关键字；
-Oracle 使用 WHERE ROWNUM &lt;= 10 作为条件（ROWNUM是表的隐藏字段，不用自己去创建）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌对信息表/ANTI_INFO 113*112条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -700,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -750,7 +752,7 @@
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -772,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -832,12 +834,12 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -883,41 +885,41 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C29" s="3"/>
     </row>
